--- a/Consistency_Report_COP2024_Q4.xlsx
+++ b/Consistency_Report_COP2024_Q4.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Consistency_Report" sheetId="1" r:id="rId1"/>
-    <sheet name="Metadata" sheetId="2" r:id="rId2"/>
+    <sheet name="Consistency_Report" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
@@ -20,106 +22,106 @@
     <t>Indicator</t>
   </si>
   <si>
-    <t>Number of Reporting Units</t>
-  </si>
-  <si>
-    <t>CXCA_SCRN TA</t>
-  </si>
-  <si>
-    <t>CXCA_TX TA</t>
-  </si>
-  <si>
-    <t>HTS_INDEX Community</t>
-  </si>
-  <si>
-    <t>HTS_INDEX TA</t>
-  </si>
-  <si>
-    <t>HTS_RECENT TA</t>
-  </si>
-  <si>
-    <t>HTS_SELF TA</t>
-  </si>
-  <si>
-    <t>HTS_TST TA</t>
-  </si>
-  <si>
-    <t>PMTCT_ART TA</t>
-  </si>
-  <si>
-    <t>PMTCT_EID TA</t>
-  </si>
-  <si>
-    <t>PMTCT_FO TA</t>
-  </si>
-  <si>
-    <t>PMTCT_HEI TA</t>
-  </si>
-  <si>
-    <t>PMTCT_HEI_POS TA</t>
-  </si>
-  <si>
-    <t>PMTCT_STAT(DENOM) TA</t>
-  </si>
-  <si>
-    <t>PMTCT_STAT(NUM) TA</t>
-  </si>
-  <si>
-    <t>PrEP_CT TA</t>
-  </si>
-  <si>
-    <t>PrEP_NEW TA</t>
+    <t xml:space="preserve">Number of Reporting Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXCA_SCRN TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXCA_TX TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTS_INDEX Community</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTS_INDEX TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTS_RECENT TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTS_SELF TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTS_TST TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT_ART TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT_EID TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT_FO TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT_HEI TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT_HEI_POS TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT_STAT(DENOM) TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMTCT_STAT(NUM) TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrEP_CT TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrEP_NEW TA</t>
   </si>
   <si>
     <t>SC_ARVDISP</t>
   </si>
   <si>
-    <t>TB_ART TA</t>
-  </si>
-  <si>
-    <t>TB_PREV(DENOM) TA</t>
-  </si>
-  <si>
-    <t>TB_PREV(NUM) TA</t>
-  </si>
-  <si>
-    <t>TB_STAT(DENOM) TA</t>
-  </si>
-  <si>
-    <t>TB_STAT(NUM) TA</t>
-  </si>
-  <si>
-    <t>TX_CURR TA</t>
-  </si>
-  <si>
-    <t>TX_ML TA</t>
-  </si>
-  <si>
-    <t>TX_NEW TA</t>
-  </si>
-  <si>
-    <t>TX_PVLS(DENOM) TA</t>
-  </si>
-  <si>
-    <t>TX_PVLS(NUM) TA</t>
-  </si>
-  <si>
-    <t>TX_RTT TA</t>
-  </si>
-  <si>
-    <t>TX_TB TA</t>
-  </si>
-  <si>
-    <t>TX_TB(DENOM) TA</t>
-  </si>
-  <si>
-    <t>TX_TB(NUM) TA</t>
+    <t xml:space="preserve">TB_ART TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB_PREV(DENOM) TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB_PREV(NUM) TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB_STAT(DENOM) TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB_STAT(NUM) TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX_CURR TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX_ML TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX_NEW TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX_PVLS(DENOM) TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX_PVLS(NUM) TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX_RTT TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX_TB TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX_TB(DENOM) TA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TX_TB(NUM) TA</t>
   </si>
   <si>
     <t>VMMC_CIRC</t>
   </si>
   <si>
-    <t>Consistency Report Metadata</t>
+    <t xml:space="preserve">Consistency Report Metadata</t>
   </si>
   <si>
     <t>Period:</t>
@@ -134,47 +136,44 @@
     <t>Q4</t>
   </si>
   <si>
-    <t>Generated At:</t>
-  </si>
-  <si>
-    <t>2025-12-31 10:06:02</t>
-  </si>
-  <si>
-    <t>Total Indicators:</t>
-  </si>
-  <si>
-    <t>Months Included:</t>
-  </si>
-  <si>
-    <t>202507, 202508, 202509</t>
+    <t xml:space="preserve">Generated At:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-12-31 10:06:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Indicators:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Months Included:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202507, 202508, 202509</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="14.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -188,11 +187,11 @@
   </fills>
   <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -207,29 +206,34 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -275,13 +279,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -309,13 +313,13 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -512,15 +516,240 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="22.421875"/>
+    <col customWidth="1" min="2" max="2" width="44.00390625"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -536,7 +765,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -544,7 +773,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -552,7 +781,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -560,7 +789,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -568,7 +797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -576,7 +805,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -584,7 +813,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -592,7 +821,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -600,7 +829,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -608,7 +837,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -616,7 +845,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -624,7 +853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -632,7 +861,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -640,7 +869,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -648,7 +877,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -656,7 +885,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -664,7 +893,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -672,7 +901,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -680,7 +909,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -688,7 +917,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -696,7 +925,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -704,7 +933,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -712,7 +941,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -720,7 +949,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -728,7 +957,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -736,7 +965,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -744,7 +973,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -752,7 +981,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -760,7 +989,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -768,7 +997,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -776,7 +1005,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -785,24 +1014,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -810,7 +1043,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -818,7 +1051,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -826,7 +1059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6">
       <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
@@ -834,7 +1067,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7">
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
@@ -843,6 +1076,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>